--- a/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.33/reference.xlsx
+++ b/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.33/reference.xlsx
@@ -5,20 +5,19 @@
   <sheets>
     <sheet name="Package info" sheetId="1" r:id="rId1"/>
     <sheet name="constants" sheetId="2" r:id="rId2"/>
-    <sheet name="categoryOptionCombos" sheetId="3" r:id="rId3"/>
-    <sheet name="categoryOptionGroupSets" sheetId="4" r:id="rId4"/>
-    <sheet name="categoryOptionGroups" sheetId="5" r:id="rId5"/>
-    <sheet name="categoryOptionGroupsBySet" sheetId="6" r:id="rId6"/>
-    <sheet name="indicatorGroups" sheetId="7" r:id="rId7"/>
-    <sheet name="indicators" sheetId="8" r:id="rId8"/>
-    <sheet name="indicatorTypes" sheetId="9" r:id="rId9"/>
-    <sheet name="dashboards" sheetId="10" r:id="rId10"/>
-    <sheet name="dashboardItems" sheetId="11" r:id="rId11"/>
-    <sheet name="charts" sheetId="12" r:id="rId12"/>
-    <sheet name="reportTables" sheetId="13" r:id="rId13"/>
-    <sheet name="maps" sheetId="14" r:id="rId14"/>
-    <sheet name="userGroups" sheetId="15" r:id="rId15"/>
-    <sheet name="users" sheetId="16" r:id="rId16"/>
+    <sheet name="categoryOptionGroupSets" sheetId="3" r:id="rId3"/>
+    <sheet name="categoryOptionGroups" sheetId="4" r:id="rId4"/>
+    <sheet name="categoryOptionGroupsBySet" sheetId="5" r:id="rId5"/>
+    <sheet name="indicatorGroups" sheetId="6" r:id="rId6"/>
+    <sheet name="indicators" sheetId="7" r:id="rId7"/>
+    <sheet name="indicatorTypes" sheetId="8" r:id="rId8"/>
+    <sheet name="dashboards" sheetId="9" r:id="rId9"/>
+    <sheet name="dashboardItems" sheetId="10" r:id="rId10"/>
+    <sheet name="charts" sheetId="11" r:id="rId11"/>
+    <sheet name="reportTables" sheetId="12" r:id="rId12"/>
+    <sheet name="maps" sheetId="13" r:id="rId13"/>
+    <sheet name="userGroups" sheetId="14" r:id="rId14"/>
+    <sheet name="users" sheetId="15" r:id="rId15"/>
   </sheets>
 </workbook>
 </file>
@@ -428,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,7 +465,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.2</v>
+        <v>1.2.1</v>
       </c>
     </row>
     <row r="5">
@@ -474,23 +473,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.33</v>
+        <v>2.33.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-04-26T16:17</v>
+        <v>58094d2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVIDVAC_DASHBOARD_V1.2_DHIS2.33_2021-04-26T16:17</v>
+        <v>20210915T084638</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>COVIDVAC_DASHBOARD_V1.2.1_2.33.9-en</v>
       </c>
     </row>
   </sheetData>
@@ -498,44 +505,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>XAXoJuC3hvM</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -1154,7 +1123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1409,7 +1378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1580,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1639,14 +1608,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1664,23 +1633,34 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC admin</v>
+        <v>COVAC data capture</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-09-15</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>e2QMDWpq88P</v>
+        <v>AxmuDEHQApq</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
+        <v>COVAC admin</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>e2QMDWpq88P</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
         <v>COVAC access</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C3" s="5" t="str">
+      <c r="B4" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
       </c>
     </row>
@@ -1688,7 +1668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1857,143 +1837,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>Open vial, Other reason</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>AnEOc7eqTPG</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>Closed vial, Color change (VVM)</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>EWaVKxhCw7E</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>Open vial, Color change (VVM)</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>iemSXBenfIl</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>Open vial, Contamination</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>k3G5n6cjo1H</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>Closed vial, Partial use</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>MkryG3woLLJ</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>Closed vial, Contamination</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>QVo1zpPICJN</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>Open vial, Partial use</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>RPzlBMTlOxz</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>Closed vial, Other reason</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <v>utXnwFzJgiA</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>Closed vial, Expiry</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v>x0WvdmAkQqF</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>Open vial, Expiry</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <v>x1IX3hw1Xwl</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
@@ -2052,7 +1895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2237,7 +2080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2348,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2393,7 +2236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J240"/>
   <sheetViews>
@@ -2979,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3590,7 +3433,7 @@
         <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J37" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4870,7 +4713,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5094,7 +4937,7 @@
         <v>Percentage</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6086,7 +5929,7 @@
         <v>Percentage</v>
       </c>
       <c r="I115" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J115" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6758,7 +6601,7 @@
         <v>Percentage</v>
       </c>
       <c r="I136" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J136" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8326,7 +8169,7 @@
         <v>Percentage</v>
       </c>
       <c r="I185" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J185" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8454,7 +8297,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I189" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J189" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -10096,7 +9939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10153,4 +9996,42 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>XAXoJuC3hvM</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>